--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD1_companies_150429.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD1_companies_150429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -239,9 +239,6 @@
 Acceso directo, al editar, al manual de estilo para los nombres de empresas.</t>
   </si>
   <si>
-    <t>22 Criterios, cada uno con 3 Valores: yes/no/tbd. Flag en rojo si Tbd. Tener la posibilidad de exportar la BD1 a excel con cada una de las 22 columnas.</t>
-  </si>
-  <si>
     <t>Ultima actividad registrada (llamada, visita, oferta)</t>
   </si>
   <si>
@@ -307,12 +304,6 @@
     <t>TB Relations IPT [Relation]</t>
   </si>
   <si>
-    <t>TB Level Activity [Level]</t>
-  </si>
-  <si>
-    <t>TB Company VCP [Position, Value]</t>
-  </si>
-  <si>
     <t>Único por país. Mayúsculas
 -Regla Duplicidad-</t>
   </si>
@@ -331,9 +322,6 @@
     <t>Activity Sector</t>
   </si>
   <si>
-    <t>TB Activity Sector [Sector]</t>
-  </si>
-  <si>
     <t>Terms of Payment</t>
   </si>
   <si>
@@ -388,6 +376,19 @@
   </si>
   <si>
     <t>Si/No // Idiomas (ES, FR, IT, GE, EN) // (conectado Modulo de campañas)</t>
+  </si>
+  <si>
+    <t>TB Activity Sectors [Sector]</t>
+  </si>
+  <si>
+    <t>TB Activity Level
+[Level]</t>
+  </si>
+  <si>
+    <t>TB Company VCP [Position] x TB Y/N/Tbd [Value]</t>
+  </si>
+  <si>
+    <t>23 Criterios, cada uno con 3 Valores: yes/no/tbd. Flag en rojo si Tbd. Tener la posibilidad de exportar la BD1 a excel con cada una de las 22 columnas.</t>
   </si>
 </sst>
 </file>
@@ -662,7 +663,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,15 +683,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -731,9 +726,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,18 +752,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -783,6 +766,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1116,35 +1114,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>48</v>
@@ -1156,28 +1154,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="38" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="22" t="s">
+    <row r="2" spans="1:7" s="32" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>255</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>100</v>
+      <c r="E2" s="20"/>
+      <c r="F2" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1197,10 +1195,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1211,22 +1209,22 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -1237,17 +1235,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -1258,59 +1256,59 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>74</v>
+      <c r="B9" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>36</v>
@@ -1319,73 +1317,73 @@
         <v>34</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>86</v>
+      <c r="B11" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="19" t="s">
-        <v>69</v>
+      <c r="F12" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1399,12 +1397,12 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1422,11 +1420,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>61</v>
+      <c r="B15" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -1436,17 +1434,17 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1455,8 +1453,8 @@
       <c r="D16" s="3">
         <v>200</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -1464,10 +1462,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1476,15 +1474,15 @@
       <c r="D17" s="3">
         <v>255</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1493,13 +1491,13 @@
       <c r="D18" s="3">
         <v>150</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1508,16 +1506,16 @@
       <c r="D19" s="3">
         <v>150</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>62</v>
+      <c r="B20" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1525,22 +1523,22 @@
       <c r="D20" s="3">
         <v>50</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -1551,8 +1549,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1561,17 +1559,17 @@
       <c r="D22" s="3">
         <v>10</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>68</v>
+      <c r="E22" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1580,15 +1578,15 @@
       <c r="D23" s="3">
         <v>10</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1599,53 +1597,53 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="22"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="20"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1658,14 +1656,14 @@
       <c r="F27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="18" t="s">
-        <v>94</v>
+      <c r="A28" s="3"/>
+      <c r="B28" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
@@ -1673,20 +1671,20 @@
       <c r="D28" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>95</v>
+      <c r="E28" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="40" t="s">
-        <v>97</v>
+      <c r="G28" s="34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="18" t="s">
-        <v>96</v>
+      <c r="A29" s="3"/>
+      <c r="B29" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
@@ -1694,20 +1692,20 @@
       <c r="D29" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>89</v>
+      <c r="E29" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="18" t="s">
-        <v>98</v>
+      <c r="A30" s="3"/>
+      <c r="B30" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
@@ -1715,20 +1713,20 @@
       <c r="D30" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>89</v>
+      <c r="E30" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="40" t="s">
-        <v>93</v>
+      <c r="G30" s="34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="18" t="s">
-        <v>104</v>
+      <c r="A31" s="3"/>
+      <c r="B31" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
@@ -1736,106 +1734,107 @@
       <c r="D31" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>89</v>
+      <c r="E31" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="40" t="s">
-        <v>93</v>
+      <c r="G31" s="34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="41"/>
+      <c r="B33" s="40"/>
       <c r="D33" s="2"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="29"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="30"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="29"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="2"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="31"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="H38" s="32"/>
+      <c r="B38" s="11"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40" spans="1:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="45" t="s">
+      <c r="D41" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
